--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -14,13 +14,16 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -86,6 +89,21 @@
   </si>
   <si>
     <t>1000002</t>
+  </si>
+  <si>
+    <t>22/02/2018</t>
+  </si>
+  <si>
+    <t>1000003</t>
+  </si>
+  <si>
+    <t>anvil test2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>**</t>
@@ -455,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -779,6 +797,75 @@
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -17,13 +17,21 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -104,6 +112,30 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>**</t>
@@ -473,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -865,7 +897,191 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="n">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -7,10 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Аркуш2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Аркуш3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -136,6 +144,108 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>27/02/2018</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
   </si>
   <si>
     <t>**</t>
@@ -505,10 +615,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1083,46 +1193,746 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="n">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="n">
+        <v>257</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="n">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="n">
+        <v>223</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2"/>
   <pageMargins bottom="0.7480314960629921" footer="0.3149606299212598" header="0.3149606299212598" left="0.03937007874015748" right="0.03937007874015748" top="0.7480314960629921"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -33,13 +33,14 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -246,6 +247,9 @@
   </si>
   <si>
     <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
   </si>
   <si>
     <t>**</t>
@@ -615,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -1927,7 +1931,30 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -34,13 +34,14 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -250,6 +251,9 @@
   </si>
   <si>
     <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
   </si>
   <si>
     <t>**</t>
@@ -619,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -1954,7 +1958,30 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -35,13 +35,28 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -254,6 +269,54 @@
   </si>
   <si>
     <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>anvil</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>400001370</t>
+  </si>
+  <si>
+    <t>crimper wire</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>400001964</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>1308</t>
   </si>
   <si>
     <t>**</t>
@@ -623,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -1981,7 +2044,321 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>400001964</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s"/>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -50,13 +50,39 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -317,6 +343,117 @@
   </si>
   <si>
     <t>1308</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>400004781</t>
+  </si>
+  <si>
+    <t>Čelist MIM1  (A355)</t>
+  </si>
+  <si>
+    <t>80001841</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>4782</t>
+  </si>
+  <si>
+    <t>Čelist MIM2  (A355)</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>Řemen ozubený 16-T5-455   výška 4mm</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>400003037</t>
+  </si>
+  <si>
+    <t>Destička kovadlinky Minic NC</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>3034</t>
+  </si>
+  <si>
+    <t>Sonotroda Minic NC</t>
+  </si>
+  <si>
+    <t>400003036</t>
+  </si>
+  <si>
+    <t>Deska přítl.oboustr.Minic NC</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>400002114</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>anvil oboustr.Minic NC</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>400004782</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>400002092</t>
+  </si>
+  <si>
+    <t>measuring ring</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>400005068</t>
+  </si>
+  <si>
+    <t>Encoder BHK 03.05A 1000</t>
+  </si>
+  <si>
+    <t>1230</t>
   </si>
   <si>
     <t>**</t>
@@ -686,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -2345,7 +2482,6 @@
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73" t="s"/>
       <c r="E73" t="s">
         <v>11</v>
       </c>
@@ -2359,6 +2495,592 @@
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -24,13 +24,85 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -144,6 +216,147 @@
   </si>
   <si>
     <t>anvil</t>
+  </si>
+  <si>
+    <t>27/03/2018</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>400001730</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>400000833</t>
+  </si>
+  <si>
+    <t>crimper insulation</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>400000901</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>400000156</t>
+  </si>
+  <si>
+    <t>палець подачі</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>400000614</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>**</t>
@@ -513,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -884,6 +1097,1656 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2"/>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -96,13 +96,14 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -357,6 +358,12 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>28/03/2018</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>**</t>
@@ -726,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -2747,6 +2754,29 @@
       <c r="A89" t="s">
         <v>85</v>
       </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2"/>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -97,13 +97,59 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -364,6 +410,66 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>29/03/2018</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>sonotrode</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>anvil weld</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>weld anvil</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>anvil plate</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>**</t>
@@ -733,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -2777,6 +2883,1064 @@
       <c r="A90" t="s">
         <v>87</v>
       </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>93</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>87</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2"/>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -143,13 +143,15 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -470,6 +472,12 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>**</t>
@@ -839,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -3939,7 +3947,53 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>87</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>37</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/spare_parts/s_parts_log.xlsx
+++ b/spare_parts/s_parts_log.xlsx
@@ -145,13 +145,21 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">main!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>реєстрація про використання запчастин зі складу для машин і аплікаторів</t>
   </si>
@@ -478,6 +486,12 @@
   </si>
   <si>
     <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
   <si>
     <t>**</t>
@@ -847,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -3993,7 +4007,191 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>87</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>87</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>102</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
